--- a/data/dataTK.xlsx
+++ b/data/dataTK.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\RanorexTesting\WebTesting\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAB4F740-29ED-4580-946E-048A0A1D1CE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09F51696-6BA2-4CA6-8E54-2B390533B355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="14" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="16" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dataTK1" sheetId="1" r:id="rId1"/>
@@ -34,6 +34,7 @@
     <sheet name="dataTK19" sheetId="19" r:id="rId19"/>
     <sheet name="dataTK20" sheetId="20" r:id="rId20"/>
     <sheet name="dataTK21" sheetId="21" r:id="rId21"/>
+    <sheet name="dataTK22" sheetId="22" r:id="rId22"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="133">
   <si>
     <t>Mua bán nhà đất</t>
   </si>
@@ -432,13 +433,25 @@
   </si>
   <si>
     <t>trên 500m²</t>
+  </si>
+  <si>
+    <t>Ha</t>
+  </si>
+  <si>
+    <t>An</t>
+  </si>
+  <si>
+    <t>Hu</t>
+  </si>
+  <si>
+    <t>Hồ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -450,6 +463,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3424"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -490,7 +510,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -511,6 +531,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5309,8 +5330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B244F7AB-FE0A-493E-B8A6-4AC4C8334CE7}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5448,6 +5469,60 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A17D3BD-AE13-4272-BBFA-D9B2DEBB1F4F}">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
